--- a/similarities/split_global/harmonic_similarity_timestamps_8.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:09.910000', '0:00:14')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:00:46.590000', '0:00:53.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:08.413696', '0:00:12.303038')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988'), ('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.620000', '0:00:22.040000'), ('0:00:25.800000', '0:00:31.820000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:dim7', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:02.360000', '0:01:08.270000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:16.520000', '0:01:20.620000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=62.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=76.52']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_226</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['A', 'E', 'F#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:38.438956', '0:00:41.945170')]</t>
+          <t>('0:00:20.860000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:30.320000')]</t>
+          <t>('0:00:16.759569', '0:00:31.190770')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=20.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7'], ['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:31.750000'), ('0:00:55.230000', '0:01:05.420000')]</t>
+          <t>('0:00:06.280000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.960000'), ('0:00:23.260000', '0:00:31.740000')]</t>
+          <t>('0:00:02.980000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=6.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=23.26']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F'], ['C:7', 'F', 'C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.480000', '0:00:22.820000'), ('0:00:57.600000', '0:01:00.720000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870'), ('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:06.260000', '0:00:17.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:54.520000', '0:01:55.660000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:01:04.520000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E', 'A', 'E', 'A'], ['A', 'E', 'A', 'E', 'A', 'E']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:13.260000'), ('0:00:09.920000', '0:00:13.980000')]</t>
+          <t>('0:00:06.950000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.509000', '0:00:18.764000'), ('0:00:04.605000', '0:00:21.095000')]</t>
+          <t>('0:00:54.400000', '0:01:01.440000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=3.509', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
